--- a/data/Toxicity Measurements -- Meta Analysis.xlsx
+++ b/data/Toxicity Measurements -- Meta Analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="600" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="paper_summary" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,33 +15,6 @@
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
 </workbook>
-</file>
-
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">Aahana, why this column?
-	-Suren Kumar
-+aahanang@gmail.com : Your attention is needed
-	-Suren Kumar</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -146,7 +119,7 @@
   </si>
   <si>
     <t>- Male
-- Weight </t>
+- Weight</t>
   </si>
   <si>
     <t>- Diameter (nm)
@@ -369,7 +342,7 @@
     <t>BAL Macrophages Control</t>
   </si>
   <si>
-    <t>BAL Macrophages </t>
+    <t>BAL Macrophages</t>
   </si>
   <si>
     <t>BAL Macrophages SD</t>
@@ -387,7 +360,7 @@
     <t>BAL LDH Control</t>
   </si>
   <si>
-    <t>BAL LDH </t>
+    <t>BAL LDH</t>
   </si>
   <si>
     <t>BAL LDH SD</t>
@@ -396,7 +369,7 @@
     <t>BAL Total Protein Control</t>
   </si>
   <si>
-    <t>BAL Total Protein </t>
+    <t>BAL Total Protein</t>
   </si>
   <si>
     <t>BAL Total Protein SD</t>
@@ -747,10 +720,10 @@
   </sheetPr>
   <dimension ref="A1:AB30"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1601,6 +1574,9 @@
       <c r="O10" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q10" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R10" s="2" t="n">
         <v>1</v>
       </c>
@@ -1671,6 +1647,9 @@
       <c r="O11" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q11" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R11" s="2" t="n">
         <v>1</v>
       </c>
@@ -1741,6 +1720,9 @@
       <c r="O12" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q12" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R12" s="2" t="n">
         <v>7</v>
       </c>
@@ -1811,6 +1793,9 @@
       <c r="O13" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q13" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R13" s="2" t="n">
         <v>7</v>
       </c>
@@ -1881,6 +1866,9 @@
       <c r="O14" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q14" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R14" s="2" t="n">
         <v>21</v>
       </c>
@@ -1951,6 +1939,9 @@
       <c r="O15" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q15" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R15" s="2" t="n">
         <v>21</v>
       </c>
@@ -2021,6 +2012,9 @@
       <c r="O16" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q16" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R16" s="2" t="n">
         <v>1</v>
       </c>
@@ -2091,6 +2085,9 @@
       <c r="O17" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q17" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R17" s="2" t="n">
         <v>1</v>
       </c>
@@ -2161,6 +2158,9 @@
       <c r="O18" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q18" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R18" s="2" t="n">
         <v>1</v>
       </c>
@@ -2231,6 +2231,9 @@
       <c r="O19" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q19" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R19" s="2" t="n">
         <v>1</v>
       </c>
@@ -2301,6 +2304,9 @@
       <c r="O20" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q20" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R20" s="2" t="n">
         <v>7</v>
       </c>
@@ -2371,6 +2377,9 @@
       <c r="O21" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q21" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R21" s="2" t="n">
         <v>7</v>
       </c>
@@ -2441,6 +2450,9 @@
       <c r="O22" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q22" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R22" s="2" t="n">
         <v>7</v>
       </c>
@@ -2511,6 +2523,9 @@
       <c r="O23" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q23" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R23" s="2" t="n">
         <v>7</v>
       </c>
@@ -2581,6 +2596,9 @@
       <c r="O24" s="2" t="n">
         <v>100</v>
       </c>
+      <c r="Q24" s="0" t="n">
+        <v>1</v>
+      </c>
       <c r="R24" s="2" t="n">
         <v>21</v>
       </c>
@@ -2650,6 +2668,9 @@
       </c>
       <c r="O25" s="2" t="n">
         <v>100</v>
+      </c>
+      <c r="Q25" s="0" t="n">
+        <v>1</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>21</v>
@@ -3067,7 +3088,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -5308,7 +5328,7 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>

--- a/data/Toxicity Measurements -- Meta Analysis.xlsx
+++ b/data/Toxicity Measurements -- Meta Analysis.xlsx
@@ -17,8 +17,35 @@
 </workbook>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">Aahana, why this column?
+	-Suren Kumar
++aahanang@gmail.com : Your attention is needed
+	-Suren Kumar</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="343" uniqueCount="101">
   <si>
     <t>Paper</t>
   </si>
@@ -119,7 +146,7 @@
   </si>
   <si>
     <t>- Male
-- Weight</t>
+- Weight </t>
   </si>
   <si>
     <t>- Diameter (nm)
@@ -324,6 +351,15 @@
     <t>Particle and Fibre Toxicology</t>
   </si>
   <si>
+    <t>Silva R</t>
+  </si>
+  <si>
+    <t>Toxi Sci</t>
+  </si>
+  <si>
+    <t>Toxicologic Pathology</t>
+  </si>
+  <si>
     <t>Exp. Mode (1=inhalation, 2=instillation, 3=aspiration)</t>
   </si>
   <si>
@@ -342,7 +378,7 @@
     <t>BAL Macrophages Control</t>
   </si>
   <si>
-    <t>BAL Macrophages</t>
+    <t>BAL Macrophages </t>
   </si>
   <si>
     <t>BAL Macrophages SD</t>
@@ -360,7 +396,7 @@
     <t>BAL LDH Control</t>
   </si>
   <si>
-    <t>BAL LDH</t>
+    <t>BAL LDH </t>
   </si>
   <si>
     <t>BAL LDH SD</t>
@@ -369,7 +405,7 @@
     <t>BAL Total Protein Control</t>
   </si>
   <si>
-    <t>BAL Total Protein</t>
+    <t>BAL Total Protein </t>
   </si>
   <si>
     <t>BAL Total Protein SD</t>
@@ -471,7 +507,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -497,6 +533,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -718,12 +758,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AB30"/>
+  <dimension ref="A1:AB60"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="J1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
-      <selection pane="bottomLeft" activeCell="Q25" activeCellId="0" sqref="Q25"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="P1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="0" ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="P1" activeCellId="0" sqref="P1"/>
+      <selection pane="bottomLeft" activeCell="V25" activeCellId="0" sqref="V25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -1380,7 +1420,7 @@
         <v>0.03597122302</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="n">
         <v>3</v>
       </c>
@@ -1460,7 +1500,7 @@
         <v>0.3506598985</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="n">
         <v>3</v>
       </c>
@@ -1575,7 +1615,7 @@
         <v>100</v>
       </c>
       <c r="Q10" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R10" s="2" t="n">
         <v>1</v>
@@ -1648,7 +1688,7 @@
         <v>100</v>
       </c>
       <c r="Q11" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R11" s="2" t="n">
         <v>1</v>
@@ -1721,7 +1761,7 @@
         <v>100</v>
       </c>
       <c r="Q12" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R12" s="2" t="n">
         <v>7</v>
@@ -1794,7 +1834,7 @@
         <v>100</v>
       </c>
       <c r="Q13" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R13" s="2" t="n">
         <v>7</v>
@@ -1867,7 +1907,7 @@
         <v>100</v>
       </c>
       <c r="Q14" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R14" s="2" t="n">
         <v>21</v>
@@ -1940,7 +1980,7 @@
         <v>100</v>
       </c>
       <c r="Q15" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R15" s="2" t="n">
         <v>21</v>
@@ -2013,7 +2053,7 @@
         <v>100</v>
       </c>
       <c r="Q16" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R16" s="2" t="n">
         <v>1</v>
@@ -2086,7 +2126,7 @@
         <v>100</v>
       </c>
       <c r="Q17" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R17" s="2" t="n">
         <v>1</v>
@@ -2159,7 +2199,7 @@
         <v>100</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R18" s="2" t="n">
         <v>1</v>
@@ -2232,7 +2272,7 @@
         <v>100</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R19" s="2" t="n">
         <v>1</v>
@@ -2305,7 +2345,7 @@
         <v>100</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R20" s="2" t="n">
         <v>7</v>
@@ -2378,7 +2418,7 @@
         <v>100</v>
       </c>
       <c r="Q21" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R21" s="2" t="n">
         <v>7</v>
@@ -2451,7 +2491,7 @@
         <v>100</v>
       </c>
       <c r="Q22" s="0" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R22" s="2" t="n">
         <v>7</v>
@@ -2524,7 +2564,7 @@
         <v>100</v>
       </c>
       <c r="Q23" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R23" s="2" t="n">
         <v>7</v>
@@ -2597,7 +2637,7 @@
         <v>100</v>
       </c>
       <c r="Q24" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R24" s="2" t="n">
         <v>21</v>
@@ -2670,7 +2710,7 @@
         <v>100</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="R25" s="2" t="n">
         <v>21</v>
@@ -3056,30 +3096,2045 @@
         <v>0.08967391304</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O30" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q30" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S30" s="0" t="str">
+        <f aca="false">control_data!M30/control_data!L30</f>
+        <v>6.058188669</v>
+      </c>
+      <c r="T30" s="0" t="str">
+        <f aca="false">control_data!N30/control_data!L30</f>
+        <v>2.320768757</v>
+      </c>
+      <c r="AA30" s="0" t="str">
+        <f aca="false">control_data!Y30/control_data!X30</f>
+        <v>1.151278196</v>
+      </c>
+      <c r="AB30" s="0" t="str">
+        <f aca="false">control_data!Z30/control_data!X30</f>
+        <v>0.343938073</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O31" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q31" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S31" s="0" t="str">
+        <f aca="false">control_data!M31/control_data!L31</f>
+        <v>7.747848036</v>
+      </c>
+      <c r="T31" s="0" t="str">
+        <f aca="false">control_data!N31/control_data!L31</f>
+        <v>1.965539076</v>
+      </c>
+      <c r="AA31" s="0" t="str">
+        <f aca="false">control_data!Y31/control_data!X31</f>
+        <v>2.510965779</v>
+      </c>
+      <c r="AB31" s="0" t="str">
+        <f aca="false">control_data!Z31/control_data!X31</f>
+        <v>0.6570416507</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G32" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O32" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q32" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R32" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S32" s="0" t="str">
+        <f aca="false">control_data!M32/control_data!L32</f>
+        <v>4.205163581</v>
+      </c>
+      <c r="T32" s="0" t="str">
+        <f aca="false">control_data!N32/control_data!L32</f>
+        <v>1.269354155</v>
+      </c>
+      <c r="Y32" s="0" t="str">
+        <f aca="false">control_data!V32/control_data!U32</f>
+        <v>8.9224238</v>
+      </c>
+      <c r="Z32" s="0" t="str">
+        <f aca="false">control_data!W32/control_data!U32</f>
+        <v>3.00859333</v>
+      </c>
+      <c r="AA32" s="0" t="str">
+        <f aca="false">control_data!Y32/control_data!X32</f>
+        <v>19.01846958</v>
+      </c>
+      <c r="AB32" s="0" t="str">
+        <f aca="false">control_data!Z32/control_data!X32</f>
+        <v>8.810378267</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G33" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O33" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q33" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R33" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S33" s="0" t="str">
+        <f aca="false">control_data!M33/control_data!L33</f>
+        <v>7.486439594</v>
+      </c>
+      <c r="T33" s="0" t="str">
+        <f aca="false">control_data!N33/control_data!L33</f>
+        <v>2.470518842</v>
+      </c>
+      <c r="Y33" s="0" t="str">
+        <f aca="false">control_data!V33/control_data!U33</f>
+        <v>7.769664408</v>
+      </c>
+      <c r="Z33" s="0" t="str">
+        <f aca="false">control_data!W33/control_data!U33</f>
+        <v>2.72526621</v>
+      </c>
+      <c r="AA33" s="0" t="str">
+        <f aca="false">control_data!Y33/control_data!X33</f>
+        <v>4.996243102</v>
+      </c>
+      <c r="AB33" s="0" t="str">
+        <f aca="false">control_data!Z33/control_data!X33</f>
+        <v>1.729807893</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G34" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O34" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q34" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R34" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S34" s="0" t="str">
+        <f aca="false">control_data!M34/control_data!L34</f>
+        <v>1.482682312</v>
+      </c>
+      <c r="T34" s="0" t="str">
+        <f aca="false">control_data!N34/control_data!L34</f>
+        <v>0.2091378988</v>
+      </c>
+      <c r="Y34" s="0" t="str">
+        <f aca="false">control_data!V34/control_data!U34</f>
+        <v>1.416381439</v>
+      </c>
+      <c r="Z34" s="0" t="str">
+        <f aca="false">control_data!W34/control_data!U34</f>
+        <v>0.1852242353</v>
+      </c>
+      <c r="AA34" s="0" t="str">
+        <f aca="false">control_data!Y34/control_data!X34</f>
+        <v>0.64366179</v>
+      </c>
+      <c r="AB34" s="0" t="str">
+        <f aca="false">control_data!Z34/control_data!X34</f>
+        <v>0.1009120744</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G35" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O35" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q35" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R35" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S35" s="0" t="str">
+        <f aca="false">control_data!M35/control_data!L35</f>
+        <v>1.926593467</v>
+      </c>
+      <c r="T35" s="0" t="str">
+        <f aca="false">control_data!N35/control_data!L35</f>
+        <v>0.7884049147</v>
+      </c>
+      <c r="Y35" s="0" t="str">
+        <f aca="false">control_data!V35/control_data!U35</f>
+        <v>2.363220389</v>
+      </c>
+      <c r="Z35" s="0" t="str">
+        <f aca="false">control_data!W35/control_data!U35</f>
+        <v>0.9174883813</v>
+      </c>
+      <c r="AA35" s="0" t="str">
+        <f aca="false">control_data!Y35/control_data!X35</f>
+        <v>2.17145118</v>
+      </c>
+      <c r="AB35" s="0" t="str">
+        <f aca="false">control_data!Z35/control_data!X35</f>
+        <v>0.9058366638</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G36" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O36" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q36" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S36" s="0" t="str">
+        <f aca="false">control_data!M36/control_data!L36</f>
+        <v>3.093017989</v>
+      </c>
+      <c r="T36" s="0" t="str">
+        <f aca="false">control_data!N36/control_data!L36</f>
+        <v>0.6442252105</v>
+      </c>
+      <c r="AA36" s="0" t="str">
+        <f aca="false">control_data!Y36/control_data!X36</f>
+        <v>1.613586412</v>
+      </c>
+      <c r="AB36" s="0" t="str">
+        <f aca="false">control_data!Z36/control_data!X36</f>
+        <v>0.4983232684</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G37" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O37" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q37" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S37" s="0" t="str">
+        <f aca="false">control_data!M37/control_data!L37</f>
+        <v>3.203966836</v>
+      </c>
+      <c r="T37" s="0" t="str">
+        <f aca="false">control_data!N37/control_data!L37</f>
+        <v>0.9364193572</v>
+      </c>
+      <c r="AA37" s="0" t="str">
+        <f aca="false">control_data!Y37/control_data!X37</f>
+        <v>2.049690754</v>
+      </c>
+      <c r="AB37" s="0" t="str">
+        <f aca="false">control_data!Z37/control_data!X37</f>
+        <v>0.7983450426</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G38" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O38" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q38" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R38" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S38" s="0" t="str">
+        <f aca="false">control_data!M38/control_data!L38</f>
+        <v>2.328598669</v>
+      </c>
+      <c r="T38" s="0" t="str">
+        <f aca="false">control_data!N38/control_data!L38</f>
+        <v>0.6008620159</v>
+      </c>
+      <c r="Y38" s="0" t="str">
+        <f aca="false">control_data!V38/control_data!U38</f>
+        <v>3.687786513</v>
+      </c>
+      <c r="Z38" s="0" t="str">
+        <f aca="false">control_data!W38/control_data!U38</f>
+        <v>1.39651825</v>
+      </c>
+      <c r="AA38" s="0" t="str">
+        <f aca="false">control_data!Y38/control_data!X38</f>
+        <v>6.9043812</v>
+      </c>
+      <c r="AB38" s="0" t="str">
+        <f aca="false">control_data!Z38/control_data!X38</f>
+        <v>2.549260994</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G39" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O39" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q39" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R39" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S39" s="0" t="str">
+        <f aca="false">control_data!M39/control_data!L39</f>
+        <v>5.738218422</v>
+      </c>
+      <c r="T39" s="0" t="str">
+        <f aca="false">control_data!N39/control_data!L39</f>
+        <v>1.292646202</v>
+      </c>
+      <c r="Y39" s="0" t="str">
+        <f aca="false">control_data!V39/control_data!U39</f>
+        <v>5.813850756</v>
+      </c>
+      <c r="Z39" s="0" t="str">
+        <f aca="false">control_data!W39/control_data!U39</f>
+        <v>1.102183934</v>
+      </c>
+      <c r="AA39" s="0" t="str">
+        <f aca="false">control_data!Y39/control_data!X39</f>
+        <v>5.735051633</v>
+      </c>
+      <c r="AB39" s="0" t="str">
+        <f aca="false">control_data!Z39/control_data!X39</f>
+        <v>1.62359943</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G40" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O40" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q40" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R40" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S40" s="0" t="str">
+        <f aca="false">control_data!M40/control_data!L40</f>
+        <v>1.393521749</v>
+      </c>
+      <c r="T40" s="0" t="str">
+        <f aca="false">control_data!N40/control_data!L40</f>
+        <v>0.223146815</v>
+      </c>
+      <c r="Y40" s="0" t="str">
+        <f aca="false">control_data!V40/control_data!U40</f>
+        <v>1.635497788</v>
+      </c>
+      <c r="Z40" s="0" t="str">
+        <f aca="false">control_data!W40/control_data!U40</f>
+        <v>0.2914350275</v>
+      </c>
+      <c r="AA40" s="0" t="str">
+        <f aca="false">control_data!Y40/control_data!X40</f>
+        <v>0.7872343844</v>
+      </c>
+      <c r="AB40" s="0" t="str">
+        <f aca="false">control_data!Z40/control_data!X40</f>
+        <v>0.2431211994</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G41" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O41" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q41" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R41" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S41" s="0" t="str">
+        <f aca="false">control_data!M41/control_data!L41</f>
+        <v>1.462900924</v>
+      </c>
+      <c r="T41" s="0" t="str">
+        <f aca="false">control_data!N41/control_data!L41</f>
+        <v>0.2807146867</v>
+      </c>
+      <c r="Y41" s="0" t="str">
+        <f aca="false">control_data!V41/control_data!U41</f>
+        <v>2.464287307</v>
+      </c>
+      <c r="Z41" s="0" t="str">
+        <f aca="false">control_data!W41/control_data!U41</f>
+        <v>1.148675244</v>
+      </c>
+      <c r="AA41" s="0" t="str">
+        <f aca="false">control_data!Y41/control_data!X41</f>
+        <v>1.519910957</v>
+      </c>
+      <c r="AB41" s="0" t="str">
+        <f aca="false">control_data!Z41/control_data!X41</f>
+        <v>0.4107866735</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G42" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O42" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q42" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R42" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S42" s="0" t="str">
+        <f aca="false">control_data!M42/control_data!L42</f>
+        <v>8.209889496</v>
+      </c>
+      <c r="T42" s="0" t="str">
+        <f aca="false">control_data!N42/control_data!L42</f>
+        <v>1.035232524</v>
+      </c>
+      <c r="AA42" s="0" t="str">
+        <f aca="false">control_data!Y42/control_data!X42</f>
+        <v>2.113488592</v>
+      </c>
+      <c r="AB42" s="0" t="str">
+        <f aca="false">control_data!Z42/control_data!X42</f>
+        <v>0.3983973408</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G43" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O43" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q43" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R43" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S43" s="0" t="str">
+        <f aca="false">control_data!M43/control_data!L43</f>
+        <v>13.16413829</v>
+      </c>
+      <c r="T43" s="0" t="str">
+        <f aca="false">control_data!N43/control_data!L43</f>
+        <v>0.9074666475</v>
+      </c>
+      <c r="AA43" s="0" t="str">
+        <f aca="false">control_data!Y43/control_data!X43</f>
+        <v>3.12494139</v>
+      </c>
+      <c r="AB43" s="0" t="str">
+        <f aca="false">control_data!Z43/control_data!X43</f>
+        <v>1.116851752</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G44" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O44" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q44" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R44" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S44" s="0" t="str">
+        <f aca="false">control_data!M44/control_data!L44</f>
+        <v>4.677976676</v>
+      </c>
+      <c r="T44" s="0" t="str">
+        <f aca="false">control_data!N44/control_data!L44</f>
+        <v>1.004902782</v>
+      </c>
+      <c r="Y44" s="0" t="str">
+        <f aca="false">control_data!V44/control_data!U44</f>
+        <v>5.310707075</v>
+      </c>
+      <c r="Z44" s="0" t="str">
+        <f aca="false">control_data!W44/control_data!U44</f>
+        <v>1.628193239</v>
+      </c>
+      <c r="AA44" s="0" t="str">
+        <f aca="false">control_data!Y44/control_data!X44</f>
+        <v>17.36337169</v>
+      </c>
+      <c r="AB44" s="0" t="str">
+        <f aca="false">control_data!Z44/control_data!X44</f>
+        <v>5.802965371</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O45" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q45" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R45" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S45" s="0" t="str">
+        <f aca="false">control_data!M45/control_data!L45</f>
+        <v>6.606639924</v>
+      </c>
+      <c r="T45" s="0" t="str">
+        <f aca="false">control_data!N45/control_data!L45</f>
+        <v>1.575648479</v>
+      </c>
+      <c r="Y45" s="0" t="str">
+        <f aca="false">control_data!V45/control_data!U45</f>
+        <v>5.384308212</v>
+      </c>
+      <c r="Z45" s="0" t="str">
+        <f aca="false">control_data!W45/control_data!U45</f>
+        <v>1.271647798</v>
+      </c>
+      <c r="AA45" s="0" t="str">
+        <f aca="false">control_data!Y45/control_data!X45</f>
+        <v>6.821699823</v>
+      </c>
+      <c r="AB45" s="0" t="str">
+        <f aca="false">control_data!Z45/control_data!X45</f>
+        <v>2.055197104</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G46" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="O46" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q46" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R46" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S46" s="0" t="str">
+        <f aca="false">control_data!M47/control_data!L47</f>
+        <v>0.8693237156</v>
+      </c>
+      <c r="T46" s="0" t="str">
+        <f aca="false">control_data!N47/control_data!L47</f>
+        <v>0.1492208067</v>
+      </c>
+      <c r="Y46" s="0" t="str">
+        <f aca="false">control_data!V47/control_data!U47</f>
+        <v>1.339862716</v>
+      </c>
+      <c r="Z46" s="0" t="str">
+        <f aca="false">control_data!W47/control_data!U47</f>
+        <v>0.2166349657</v>
+      </c>
+      <c r="AA46" s="0" t="str">
+        <f aca="false">control_data!Y47/control_data!X47</f>
+        <v>0.865964133</v>
+      </c>
+      <c r="AB46" s="0" t="str">
+        <f aca="false">control_data!Z47/control_data!X47</f>
+        <v>0.2560541247</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G47" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O47" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q47" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R47" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S47" s="0" t="str">
+        <f aca="false">control_data!M48/control_data!L48</f>
+        <v>2.421845511</v>
+      </c>
+      <c r="T47" s="0" t="str">
+        <f aca="false">control_data!N48/control_data!L48</f>
+        <v>0.567732147</v>
+      </c>
+      <c r="AA47" s="0" t="str">
+        <f aca="false">control_data!Y48/control_data!X48</f>
+        <v>1.321805265</v>
+      </c>
+      <c r="AB47" s="0" t="str">
+        <f aca="false">control_data!Z48/control_data!X48</f>
+        <v>0.3520661334</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G48" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O48" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q48" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R48" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S48" s="0" t="str">
+        <f aca="false">control_data!M49/control_data!L49</f>
+        <v>4.795494545</v>
+      </c>
+      <c r="T48" s="0" t="str">
+        <f aca="false">control_data!N49/control_data!L49</f>
+        <v>0.9435185972</v>
+      </c>
+      <c r="AA48" s="0" t="str">
+        <f aca="false">control_data!Y49/control_data!X49</f>
+        <v>4.154770831</v>
+      </c>
+      <c r="AB48" s="0" t="str">
+        <f aca="false">control_data!Z49/control_data!X49</f>
+        <v>1.035967903</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G49" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O49" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q49" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R49" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S49" s="0" t="str">
+        <f aca="false">control_data!M50/control_data!L50</f>
+        <v>1.934573707</v>
+      </c>
+      <c r="T49" s="0" t="str">
+        <f aca="false">control_data!N50/control_data!L50</f>
+        <v>0.3230859866</v>
+      </c>
+      <c r="Y49" s="0" t="str">
+        <f aca="false">control_data!V50/control_data!U50</f>
+        <v>2.618454692</v>
+      </c>
+      <c r="Z49" s="0" t="str">
+        <f aca="false">control_data!W50/control_data!U50</f>
+        <v>0.8118942138</v>
+      </c>
+      <c r="AA49" s="0" t="str">
+        <f aca="false">control_data!Y50/control_data!X50</f>
+        <v>3.894383392</v>
+      </c>
+      <c r="AB49" s="0" t="str">
+        <f aca="false">control_data!Z50/control_data!X50</f>
+        <v>1.464647826</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G50" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O50" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q50" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R50" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S50" s="0" t="str">
+        <f aca="false">control_data!M51/control_data!L51</f>
+        <v>3.344954191</v>
+      </c>
+      <c r="T50" s="0" t="str">
+        <f aca="false">control_data!N51/control_data!L51</f>
+        <v>1.022655782</v>
+      </c>
+      <c r="Y50" s="0" t="str">
+        <f aca="false">control_data!V51/control_data!U51</f>
+        <v>3.383166192</v>
+      </c>
+      <c r="Z50" s="0" t="str">
+        <f aca="false">control_data!W51/control_data!U51</f>
+        <v>1.205158609</v>
+      </c>
+      <c r="AA50" s="0" t="str">
+        <f aca="false">control_data!Y51/control_data!X51</f>
+        <v>3.155665385</v>
+      </c>
+      <c r="AB50" s="0" t="str">
+        <f aca="false">control_data!Z51/control_data!X51</f>
+        <v>0.7253870875</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G51" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O51" s="8" t="n">
+        <v>500</v>
+      </c>
+      <c r="Q51" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R51" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S51" s="0" t="str">
+        <f aca="false">control_data!M52/control_data!L52</f>
+        <v>0.919209858</v>
+      </c>
+      <c r="T51" s="0" t="str">
+        <f aca="false">control_data!N52/control_data!L52</f>
+        <v>0.09492936483</v>
+      </c>
+      <c r="Y51" s="0" t="str">
+        <f aca="false">control_data!V52/control_data!U52</f>
+        <v>1.536264903</v>
+      </c>
+      <c r="Z51" s="0" t="str">
+        <f aca="false">control_data!W52/control_data!U52</f>
+        <v>0.3547357527</v>
+      </c>
+      <c r="AA51" s="0" t="str">
+        <f aca="false">control_data!Y52/control_data!X52</f>
+        <v>0.7123623628</v>
+      </c>
+      <c r="AB51" s="0" t="str">
+        <f aca="false">control_data!Z52/control_data!X52</f>
+        <v>0.2443270344</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G52" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="O52" s="8" t="n">
+        <v>1000</v>
+      </c>
+      <c r="Q52" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R52" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S52" s="0" t="str">
+        <f aca="false">control_data!M53/control_data!L53</f>
+        <v>1.523796037</v>
+      </c>
+      <c r="T52" s="0" t="str">
+        <f aca="false">control_data!N53/control_data!L53</f>
+        <v>0.3051256932</v>
+      </c>
+      <c r="Y52" s="0" t="str">
+        <f aca="false">control_data!V53/control_data!U53</f>
+        <v>1.716273582</v>
+      </c>
+      <c r="Z52" s="0" t="str">
+        <f aca="false">control_data!W53/control_data!U53</f>
+        <v>0.4257641642</v>
+      </c>
+      <c r="AA52" s="0" t="str">
+        <f aca="false">control_data!Y53/control_data!X53</f>
+        <v>1.601829169</v>
+      </c>
+      <c r="AB52" s="0" t="str">
+        <f aca="false">control_data!Z53/control_data!X53</f>
+        <v>0.6795716311</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G53" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J53" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="M53" s="8" t="n">
+        <v>7200</v>
+      </c>
+      <c r="N53" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q53" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R53" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S53" s="0" t="str">
+        <f aca="false">control_data!M54/control_data!L54</f>
+        <v>0.6687021234</v>
+      </c>
+      <c r="T53" s="0" t="str">
+        <f aca="false">control_data!N54/control_data!L54</f>
+        <v>0.07486480502</v>
+      </c>
+      <c r="W53" s="0" t="str">
+        <f aca="false">control_data!S54/control_data!R54</f>
+        <v>0.3108953686</v>
+      </c>
+      <c r="X53" s="0" t="str">
+        <f aca="false">control_data!T54/control_data!R54</f>
+        <v>0.4379719115</v>
+      </c>
+      <c r="Y53" s="0" t="str">
+        <f aca="false">control_data!V54/control_data!U54</f>
+        <v>1.360824877</v>
+      </c>
+      <c r="Z53" s="0" t="str">
+        <f aca="false">control_data!W54/control_data!U54</f>
+        <v>0.1855670725</v>
+      </c>
+      <c r="AA53" s="0" t="str">
+        <f aca="false">control_data!Y54/control_data!X54</f>
+        <v>1.384680914</v>
+      </c>
+      <c r="AB53" s="0" t="str">
+        <f aca="false">control_data!Z54/control_data!X54</f>
+        <v>0.1808005851</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G54" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="M54" s="8" t="n">
+        <v>5300</v>
+      </c>
+      <c r="N54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q54" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R54" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S54" s="0" t="str">
+        <f aca="false">control_data!M55/control_data!L55</f>
+        <v>0.5020977138</v>
+      </c>
+      <c r="T54" s="0" t="str">
+        <f aca="false">control_data!N55/control_data!L55</f>
+        <v>0.08973522038</v>
+      </c>
+      <c r="W54" s="0" t="str">
+        <f aca="false">control_data!S55/control_data!R55</f>
+        <v>0.3488671479</v>
+      </c>
+      <c r="X54" s="0" t="str">
+        <f aca="false">control_data!T55/control_data!R55</f>
+        <v>0.4388347788</v>
+      </c>
+      <c r="Y54" s="0" t="str">
+        <f aca="false">control_data!V55/control_data!U55</f>
+        <v>0.9175258528</v>
+      </c>
+      <c r="Z54" s="0" t="str">
+        <f aca="false">control_data!W55/control_data!U55</f>
+        <v>0.1546392673</v>
+      </c>
+      <c r="AA54" s="0" t="str">
+        <f aca="false">control_data!Y55/control_data!X55</f>
+        <v>0.7389797949</v>
+      </c>
+      <c r="AB54" s="0" t="str">
+        <f aca="false">control_data!Z55/control_data!X55</f>
+        <v>0.2347955065</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G55" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="M55" s="8" t="n">
+        <v>7200</v>
+      </c>
+      <c r="N55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q55" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R55" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S55" s="0" t="str">
+        <f aca="false">control_data!M56/control_data!L56</f>
+        <v>3.73106577</v>
+      </c>
+      <c r="T55" s="0" t="str">
+        <f aca="false">control_data!N56/control_data!L56</f>
+        <v>0.683435619</v>
+      </c>
+      <c r="W55" s="0" t="str">
+        <f aca="false">control_data!S56/control_data!R56</f>
+        <v>29.62481659</v>
+      </c>
+      <c r="X55" s="0" t="str">
+        <f aca="false">control_data!T56/control_data!R56</f>
+        <v>3.54664354</v>
+      </c>
+      <c r="Y55" s="0" t="str">
+        <f aca="false">control_data!V56/control_data!U56</f>
+        <v>3.320514332</v>
+      </c>
+      <c r="Z55" s="0" t="str">
+        <f aca="false">control_data!W56/control_data!U56</f>
+        <v>0.5384616538</v>
+      </c>
+      <c r="AA55" s="0" t="str">
+        <f aca="false">control_data!Y56/control_data!X56</f>
+        <v>5.612399169</v>
+      </c>
+      <c r="AB55" s="0" t="str">
+        <f aca="false">control_data!Z56/control_data!X56</f>
+        <v>0.307104989</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G56" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="M56" s="8" t="n">
+        <v>5300</v>
+      </c>
+      <c r="N56" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q56" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R56" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="S56" s="0" t="str">
+        <f aca="false">control_data!M57/control_data!L57</f>
+        <v>2.185839138</v>
+      </c>
+      <c r="T56" s="0" t="str">
+        <f aca="false">control_data!N57/control_data!L57</f>
+        <v>0.2148549959</v>
+      </c>
+      <c r="W56" s="0" t="str">
+        <f aca="false">control_data!S57/control_data!R57</f>
+        <v>0.513513345</v>
+      </c>
+      <c r="X56" s="0" t="str">
+        <f aca="false">control_data!T57/control_data!R57</f>
+        <v>0.9851785384</v>
+      </c>
+      <c r="Y56" s="0" t="str">
+        <f aca="false">control_data!V57/control_data!U57</f>
+        <v>3.410256341</v>
+      </c>
+      <c r="Z56" s="0" t="str">
+        <f aca="false">control_data!W57/control_data!U57</f>
+        <v>0.3974358397</v>
+      </c>
+      <c r="AA56" s="0" t="str">
+        <f aca="false">control_data!Y57/control_data!X57</f>
+        <v>3.161771286</v>
+      </c>
+      <c r="AB56" s="0" t="str">
+        <f aca="false">control_data!Z57/control_data!X57</f>
+        <v>0.3069755924</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G57" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="M57" s="8" t="n">
+        <v>7200</v>
+      </c>
+      <c r="N57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q57" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R57" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S57" s="0" t="str">
+        <f aca="false">control_data!M58/control_data!L58</f>
+        <v>0.9979409434</v>
+      </c>
+      <c r="T57" s="0" t="str">
+        <f aca="false">control_data!N58/control_data!L58</f>
+        <v>0.1724183576</v>
+      </c>
+      <c r="W57" s="0" t="str">
+        <f aca="false">control_data!S58/control_data!R58</f>
+        <v>16.05725074</v>
+      </c>
+      <c r="X57" s="0" t="str">
+        <f aca="false">control_data!T58/control_data!R58</f>
+        <v>1.259053027</v>
+      </c>
+      <c r="Y57" s="0" t="str">
+        <f aca="false">control_data!V58/control_data!U58</f>
+        <v>0.4907974835</v>
+      </c>
+      <c r="Z57" s="0" t="str">
+        <f aca="false">control_data!W58/control_data!U58</f>
+        <v>0.1533742226</v>
+      </c>
+      <c r="AA57" s="0" t="str">
+        <f aca="false">control_data!Y58/control_data!X58</f>
+        <v>0.7449164555</v>
+      </c>
+      <c r="AB57" s="0" t="str">
+        <f aca="false">control_data!Z58/control_data!X58</f>
+        <v>0.1301726489</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G58" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="M58" s="8" t="n">
+        <v>5300</v>
+      </c>
+      <c r="N58" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q58" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R58" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="S58" s="0" t="str">
+        <f aca="false">control_data!M59/control_data!L59</f>
+        <v>0.9959715179</v>
+      </c>
+      <c r="T58" s="0" t="str">
+        <f aca="false">control_data!N59/control_data!L59</f>
+        <v>0.2154782083</v>
+      </c>
+      <c r="W58" s="0" t="str">
+        <f aca="false">control_data!S59/control_data!R59</f>
+        <v>0.338491699</v>
+      </c>
+      <c r="X58" s="0" t="str">
+        <f aca="false">control_data!T59/control_data!R59</f>
+        <v>1.538429824</v>
+      </c>
+      <c r="Y58" s="0" t="str">
+        <f aca="false">control_data!V59/control_data!U59</f>
+        <v>0.8159509616</v>
+      </c>
+      <c r="Z58" s="0" t="str">
+        <f aca="false">control_data!W59/control_data!U59</f>
+        <v>0.1533742226</v>
+      </c>
+      <c r="AA58" s="0" t="str">
+        <f aca="false">control_data!Y59/control_data!X59</f>
+        <v>0.5273225885</v>
+      </c>
+      <c r="AB58" s="0" t="str">
+        <f aca="false">control_data!Z59/control_data!X59</f>
+        <v>0.07421211753</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G59" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="M59" s="8" t="n">
+        <v>7200</v>
+      </c>
+      <c r="N59" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q59" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R59" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="S59" s="0" t="str">
+        <f aca="false">control_data!M60/control_data!L60</f>
+        <v>1.103381823</v>
+      </c>
+      <c r="T59" s="0" t="str">
+        <f aca="false">control_data!N60/control_data!L60</f>
+        <v>0.2341510868</v>
+      </c>
+      <c r="W59" s="0" t="str">
+        <f aca="false">control_data!S60/control_data!R60</f>
+        <v>0.5804482015</v>
+      </c>
+      <c r="X59" s="0" t="str">
+        <f aca="false">control_data!T60/control_data!R60</f>
+        <v>0.6155240397</v>
+      </c>
+      <c r="Y59" s="0" t="str">
+        <f aca="false">control_data!V60/control_data!U60</f>
+        <v>1</v>
+      </c>
+      <c r="Z59" s="0" t="str">
+        <f aca="false">control_data!W60/control_data!U60</f>
+        <v>0.1656441489</v>
+      </c>
+      <c r="AA59" s="0" t="str">
+        <f aca="false">control_data!Y60/control_data!X60</f>
+        <v>0.9123928577</v>
+      </c>
+      <c r="AB59" s="0" t="str">
+        <f aca="false">control_data!Z60/control_data!X60</f>
+        <v>0.06121615277</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2" t="n">
+        <v>300</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="M60" s="8" t="n">
+        <v>5300</v>
+      </c>
+      <c r="N60" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="Q60" s="8" t="n">
+        <v>6</v>
+      </c>
+      <c r="R60" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="S60" s="0" t="str">
+        <f aca="false">control_data!M61/control_data!L61</f>
+        <v>1.206830154</v>
+      </c>
+      <c r="T60" s="0" t="str">
+        <f aca="false">control_data!N61/control_data!L61</f>
+        <v>0.1917108592</v>
+      </c>
+      <c r="W60" s="0" t="str">
+        <f aca="false">control_data!S61/control_data!R61</f>
+        <v>0.7764200959</v>
+      </c>
+      <c r="X60" s="0" t="str">
+        <f aca="false">control_data!T61/control_data!R61</f>
+        <v>0.46028503</v>
+      </c>
+      <c r="Y60" s="0" t="str">
+        <f aca="false">control_data!V61/control_data!U61</f>
+        <v>1</v>
+      </c>
+      <c r="Z60" s="0" t="str">
+        <f aca="false">control_data!W61/control_data!U61</f>
+        <v>0.1656441489</v>
+      </c>
+      <c r="AA60" s="0" t="str">
+        <f aca="false">control_data!Y61/control_data!X61</f>
+        <v>0.9932435378</v>
+      </c>
+      <c r="AB60" s="0" t="str">
+        <f aca="false">control_data!Z61/control_data!X61</f>
+        <v>0.1074230233</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3088,6 +5143,7 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3096,7 +5152,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z29"/>
+  <dimension ref="A1:Z61"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -3142,10 +5198,10 @@
         <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>50</v>
@@ -3163,49 +5219,49 @@
         <v>61</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3868,40 +5924,40 @@
       <c r="K10" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L10" s="7" t="n">
+      <c r="L10" s="8" t="n">
         <v>0.309</v>
       </c>
-      <c r="M10" s="7" t="n">
+      <c r="M10" s="8" t="n">
         <v>2.62</v>
       </c>
-      <c r="N10" s="7" t="n">
+      <c r="N10" s="8" t="n">
         <v>1.12</v>
       </c>
-      <c r="O10" s="7" t="n">
+      <c r="O10" s="8" t="n">
         <v>0.308996</v>
       </c>
-      <c r="P10" s="7" t="n">
+      <c r="P10" s="8" t="n">
         <v>0.21977</v>
       </c>
-      <c r="Q10" s="7" t="n">
+      <c r="Q10" s="8" t="n">
         <v>0.062657</v>
       </c>
-      <c r="R10" s="7" t="n">
+      <c r="R10" s="8" t="n">
         <v>0.046589</v>
       </c>
-      <c r="S10" s="7" t="n">
+      <c r="S10" s="8" t="n">
         <v>2.099366</v>
       </c>
-      <c r="T10" s="7" t="n">
+      <c r="T10" s="8" t="n">
         <v>1.040232</v>
       </c>
-      <c r="X10" s="7" t="n">
+      <c r="X10" s="8" t="n">
         <v>0.562338</v>
       </c>
-      <c r="Y10" s="7" t="n">
+      <c r="Y10" s="8" t="n">
         <v>1.07348</v>
       </c>
-      <c r="Z10" s="7" t="n">
+      <c r="Z10" s="8" t="n">
         <v>0.521004</v>
       </c>
     </row>
@@ -3939,40 +5995,40 @@
       <c r="K11" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L11" s="7" t="n">
+      <c r="L11" s="8" t="n">
         <v>0.309</v>
       </c>
-      <c r="M11" s="7" t="n">
+      <c r="M11" s="8" t="n">
         <v>4.66</v>
       </c>
-      <c r="N11" s="7" t="n">
+      <c r="N11" s="8" t="n">
         <v>1.56</v>
       </c>
-      <c r="O11" s="7" t="n">
+      <c r="O11" s="8" t="n">
         <v>0.308996</v>
       </c>
-      <c r="P11" s="7" t="n">
+      <c r="P11" s="8" t="n">
         <v>0.292887</v>
       </c>
-      <c r="Q11" s="7" t="n">
+      <c r="Q11" s="8" t="n">
         <v>0.141318</v>
       </c>
-      <c r="R11" s="7" t="n">
+      <c r="R11" s="8" t="n">
         <v>0.046589</v>
       </c>
-      <c r="S11" s="7" t="n">
+      <c r="S11" s="8" t="n">
         <v>4.031729</v>
       </c>
-      <c r="T11" s="7" t="n">
+      <c r="T11" s="8" t="n">
         <v>1.3417</v>
       </c>
-      <c r="X11" s="7" t="n">
+      <c r="X11" s="8" t="n">
         <v>0.562338</v>
       </c>
-      <c r="Y11" s="7" t="n">
+      <c r="Y11" s="8" t="n">
         <v>0.920785</v>
       </c>
-      <c r="Z11" s="7" t="n">
+      <c r="Z11" s="8" t="n">
         <v>0.571424</v>
       </c>
     </row>
@@ -4010,40 +6066,40 @@
       <c r="K12" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="L12" s="7" t="n">
+      <c r="L12" s="8" t="n">
         <v>0.789</v>
       </c>
-      <c r="M12" s="7" t="n">
+      <c r="M12" s="8" t="n">
         <v>1.41</v>
       </c>
-      <c r="N12" s="7" t="n">
+      <c r="N12" s="8" t="n">
         <v>0.34</v>
       </c>
-      <c r="O12" s="7" t="n">
+      <c r="O12" s="8" t="n">
         <v>0.617155</v>
       </c>
-      <c r="P12" s="7" t="n">
+      <c r="P12" s="8" t="n">
         <v>1.019979</v>
       </c>
-      <c r="Q12" s="7" t="n">
+      <c r="Q12" s="8" t="n">
         <v>0.371234</v>
       </c>
-      <c r="R12" s="7" t="n">
+      <c r="R12" s="8" t="n">
         <v>0.057195</v>
       </c>
-      <c r="S12" s="7" t="n">
+      <c r="S12" s="8" t="n">
         <v>0.270787</v>
       </c>
-      <c r="T12" s="7" t="n">
+      <c r="T12" s="8" t="n">
         <v>0.195979</v>
       </c>
-      <c r="X12" s="7" t="n">
+      <c r="X12" s="8" t="n">
         <v>0.170067</v>
       </c>
-      <c r="Y12" s="7" t="n">
+      <c r="Y12" s="8" t="n">
         <v>0.613982</v>
       </c>
-      <c r="Z12" s="7" t="n">
+      <c r="Z12" s="8" t="n">
         <v>0.084056</v>
       </c>
     </row>
@@ -4081,40 +6137,40 @@
       <c r="K13" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="L13" s="7" t="n">
+      <c r="L13" s="8" t="n">
         <v>0.789</v>
       </c>
-      <c r="M13" s="7" t="n">
+      <c r="M13" s="8" t="n">
         <v>2.37</v>
       </c>
-      <c r="N13" s="7" t="n">
+      <c r="N13" s="8" t="n">
         <v>0.74</v>
       </c>
-      <c r="O13" s="7" t="n">
+      <c r="O13" s="8" t="n">
         <v>0.617155</v>
       </c>
-      <c r="P13" s="7" t="n">
+      <c r="P13" s="8" t="n">
         <v>1.412134</v>
       </c>
-      <c r="Q13" s="7" t="n">
+      <c r="Q13" s="8" t="n">
         <v>0.481172</v>
       </c>
-      <c r="R13" s="7" t="n">
+      <c r="R13" s="8" t="n">
         <v>0.057195</v>
       </c>
-      <c r="S13" s="7" t="n">
+      <c r="S13" s="8" t="n">
         <v>0.72581</v>
       </c>
-      <c r="T13" s="7" t="n">
+      <c r="T13" s="8" t="n">
         <v>0.527597</v>
       </c>
-      <c r="X13" s="7" t="n">
+      <c r="X13" s="8" t="n">
         <v>0.170067</v>
       </c>
-      <c r="Y13" s="7" t="n">
+      <c r="Y13" s="8" t="n">
         <v>0.730169</v>
       </c>
-      <c r="Z13" s="7" t="n">
+      <c r="Z13" s="8" t="n">
         <v>0.201703</v>
       </c>
     </row>
@@ -4152,40 +6208,40 @@
       <c r="K14" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="L14" s="7" t="n">
+      <c r="L14" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="M14" s="7" t="n">
+      <c r="M14" s="8" t="n">
         <v>0.719</v>
       </c>
-      <c r="N14" s="7" t="n">
+      <c r="N14" s="8" t="n">
         <v>0.215</v>
       </c>
-      <c r="O14" s="7" t="n">
+      <c r="O14" s="8" t="n">
         <v>0.360879</v>
       </c>
-      <c r="P14" s="7" t="n">
+      <c r="P14" s="8" t="n">
         <v>0.622385</v>
       </c>
-      <c r="Q14" s="7" t="n">
+      <c r="Q14" s="8" t="n">
         <v>0.104603</v>
       </c>
-      <c r="R14" s="7" t="n">
+      <c r="R14" s="8" t="n">
         <v>0.067763</v>
       </c>
-      <c r="S14" s="7" t="n">
+      <c r="S14" s="8" t="n">
         <v>0.055339</v>
       </c>
-      <c r="T14" s="7" t="n">
+      <c r="T14" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="X14" s="7" t="n">
+      <c r="X14" s="8" t="n">
         <v>0.660141</v>
       </c>
-      <c r="Y14" s="7" t="n">
+      <c r="Y14" s="8" t="n">
         <v>0.42339</v>
       </c>
-      <c r="Z14" s="7" t="n">
+      <c r="Z14" s="8" t="n">
         <v>0.11767</v>
       </c>
     </row>
@@ -4223,40 +6279,40 @@
       <c r="K15" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="L15" s="7" t="n">
+      <c r="L15" s="8" t="n">
         <v>0.36</v>
       </c>
-      <c r="M15" s="7" t="n">
+      <c r="M15" s="8" t="n">
         <v>0.687</v>
       </c>
-      <c r="N15" s="7" t="n">
+      <c r="N15" s="8" t="n">
         <v>0.175</v>
       </c>
-      <c r="O15" s="7" t="n">
+      <c r="O15" s="8" t="n">
         <v>0.360879</v>
       </c>
-      <c r="P15" s="7" t="n">
+      <c r="P15" s="8" t="n">
         <v>0.575314</v>
       </c>
-      <c r="Q15" s="7" t="n">
+      <c r="Q15" s="8" t="n">
         <v>0.130858</v>
       </c>
-      <c r="R15" s="7" t="n">
+      <c r="R15" s="8" t="n">
         <v>0.067763</v>
       </c>
-      <c r="S15" s="7" t="n">
+      <c r="S15" s="8" t="n">
         <v>0.042877</v>
       </c>
-      <c r="T15" s="7" t="n">
+      <c r="T15" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="X15" s="7" t="n">
+      <c r="X15" s="8" t="n">
         <v>0.660141</v>
       </c>
-      <c r="Y15" s="7" t="n">
+      <c r="Y15" s="8" t="n">
         <v>0.54798</v>
       </c>
-      <c r="Z15" s="7" t="n">
+      <c r="Z15" s="8" t="n">
         <v>0.193323</v>
       </c>
     </row>
@@ -4294,40 +6350,40 @@
       <c r="K16" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L16" s="7" t="n">
+      <c r="L16" s="8" t="n">
         <v>0.174</v>
       </c>
-      <c r="M16" s="7" t="n">
+      <c r="M16" s="8" t="n">
         <v>6.96</v>
       </c>
-      <c r="N16" s="7" t="n">
+      <c r="N16" s="8" t="n">
         <v>2.21</v>
       </c>
-      <c r="O16" s="7" t="n">
+      <c r="O16" s="8" t="n">
         <v>0.191949</v>
       </c>
-      <c r="P16" s="7" t="n">
+      <c r="P16" s="8" t="n">
         <v>0.59322</v>
       </c>
-      <c r="Q16" s="7" t="n">
+      <c r="Q16" s="8" t="n">
         <v>0.38178</v>
       </c>
-      <c r="R16" s="7" t="n">
+      <c r="R16" s="8" t="n">
         <v>0.042938</v>
       </c>
-      <c r="S16" s="7" t="n">
+      <c r="S16" s="8" t="n">
         <v>2.880126</v>
       </c>
-      <c r="T16" s="7" t="n">
+      <c r="T16" s="8" t="n">
         <v>1.214627</v>
       </c>
-      <c r="X16" s="7" t="n">
+      <c r="X16" s="8" t="n">
         <v>0.655462</v>
       </c>
-      <c r="Y16" s="7" t="n">
+      <c r="Y16" s="8" t="n">
         <v>1.877839</v>
       </c>
-      <c r="Z16" s="7" t="n">
+      <c r="Z16" s="8" t="n">
         <v>0.707932</v>
       </c>
     </row>
@@ -4365,40 +6421,40 @@
       <c r="K17" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L17" s="7" t="n">
+      <c r="L17" s="8" t="n">
         <v>0.174</v>
       </c>
-      <c r="M17" s="7" t="n">
+      <c r="M17" s="8" t="n">
         <v>6.72</v>
       </c>
-      <c r="N17" s="7" t="n">
+      <c r="N17" s="8" t="n">
         <v>1.1</v>
       </c>
-      <c r="O17" s="7" t="n">
+      <c r="O17" s="8" t="n">
         <v>0.191949</v>
       </c>
-      <c r="P17" s="7" t="n">
+      <c r="P17" s="8" t="n">
         <v>0.529661</v>
       </c>
-      <c r="Q17" s="7" t="n">
+      <c r="Q17" s="8" t="n">
         <v>0.276695</v>
       </c>
-      <c r="R17" s="7" t="n">
+      <c r="R17" s="8" t="n">
         <v>0.042938</v>
       </c>
-      <c r="S17" s="7" t="n">
+      <c r="S17" s="8" t="n">
         <v>3.800215</v>
       </c>
-      <c r="T17" s="7" t="n">
+      <c r="T17" s="8" t="n">
         <v>0.965884</v>
       </c>
-      <c r="X17" s="7" t="n">
+      <c r="X17" s="8" t="n">
         <v>0.655462</v>
       </c>
-      <c r="Y17" s="7" t="n">
+      <c r="Y17" s="8" t="n">
         <v>2.303789</v>
       </c>
-      <c r="Z17" s="7" t="n">
+      <c r="Z17" s="8" t="n">
         <v>0.442422</v>
       </c>
     </row>
@@ -4436,40 +6492,40 @@
       <c r="K18" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L18" s="7" t="n">
+      <c r="L18" s="8" t="n">
         <v>0.174</v>
       </c>
-      <c r="M18" s="7" t="n">
+      <c r="M18" s="8" t="n">
         <v>7.61</v>
       </c>
-      <c r="N18" s="7" t="n">
+      <c r="N18" s="8" t="n">
         <v>1.78</v>
       </c>
-      <c r="O18" s="7" t="n">
+      <c r="O18" s="8" t="n">
         <v>0.191949</v>
       </c>
-      <c r="P18" s="7" t="n">
+      <c r="P18" s="8" t="n">
         <v>0.383898</v>
       </c>
-      <c r="Q18" s="7" t="n">
+      <c r="Q18" s="8" t="n">
         <v>0.188559</v>
       </c>
-      <c r="R18" s="7" t="n">
+      <c r="R18" s="8" t="n">
         <v>0.042938</v>
       </c>
-      <c r="S18" s="7" t="n">
+      <c r="S18" s="8" t="n">
         <v>1.295899</v>
       </c>
-      <c r="T18" s="7" t="n">
+      <c r="T18" s="8" t="n">
         <v>0.175644</v>
       </c>
-      <c r="X18" s="7" t="n">
+      <c r="X18" s="8" t="n">
         <v>0.655462</v>
       </c>
-      <c r="Y18" s="7" t="n">
+      <c r="Y18" s="8" t="n">
         <v>1.455361</v>
       </c>
-      <c r="Z18" s="7" t="n">
+      <c r="Z18" s="8" t="n">
         <v>0.477846</v>
       </c>
     </row>
@@ -4507,40 +6563,40 @@
       <c r="K19" s="2" t="n">
         <v>1</v>
       </c>
-      <c r="L19" s="7" t="n">
+      <c r="L19" s="8" t="n">
         <v>0.174</v>
       </c>
-      <c r="M19" s="7" t="n">
+      <c r="M19" s="8" t="n">
         <v>5.29</v>
       </c>
-      <c r="N19" s="7" t="n">
+      <c r="N19" s="8" t="n">
         <v>0.85</v>
       </c>
-      <c r="O19" s="7" t="n">
+      <c r="O19" s="8" t="n">
         <v>0.191949</v>
       </c>
-      <c r="P19" s="7" t="n">
+      <c r="P19" s="8" t="n">
         <v>1.441102</v>
       </c>
-      <c r="Q19" s="7" t="n">
+      <c r="Q19" s="8" t="n">
         <v>0.254237</v>
       </c>
-      <c r="R19" s="7" t="n">
+      <c r="R19" s="8" t="n">
         <v>0.042938</v>
       </c>
-      <c r="S19" s="7" t="n">
+      <c r="S19" s="8" t="n">
         <v>1.294043</v>
       </c>
-      <c r="T19" s="7" t="n">
+      <c r="T19" s="8" t="n">
         <v>0.263449</v>
       </c>
-      <c r="X19" s="7" t="n">
+      <c r="X19" s="8" t="n">
         <v>0.655462</v>
       </c>
-      <c r="Y19" s="7" t="n">
+      <c r="Y19" s="8" t="n">
         <v>1.500757</v>
       </c>
-      <c r="Z19" s="7" t="n">
+      <c r="Z19" s="8" t="n">
         <v>0.495545</v>
       </c>
     </row>
@@ -4578,40 +6634,40 @@
       <c r="K20" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="L20" s="7" t="n">
+      <c r="L20" s="8" t="n">
         <v>0.649</v>
       </c>
-      <c r="M20" s="7" t="n">
+      <c r="M20" s="8" t="n">
         <v>4.34</v>
       </c>
-      <c r="N20" s="7" t="n">
+      <c r="N20" s="8" t="n">
         <v>1.11</v>
       </c>
-      <c r="O20" s="7" t="n">
+      <c r="O20" s="8" t="n">
         <v>0.530085</v>
       </c>
-      <c r="P20" s="7" t="n">
+      <c r="P20" s="8" t="n">
         <v>1.144068</v>
       </c>
-      <c r="Q20" s="7" t="n">
+      <c r="Q20" s="8" t="n">
         <v>0.913559</v>
       </c>
-      <c r="R20" s="7" t="n">
+      <c r="R20" s="8" t="n">
         <v>0.075704</v>
       </c>
-      <c r="S20" s="7" t="n">
+      <c r="S20" s="8" t="n">
         <v>0.190885</v>
       </c>
-      <c r="T20" s="7" t="n">
+      <c r="T20" s="8" t="n">
         <v>0.08784</v>
       </c>
-      <c r="X20" s="7" t="n">
+      <c r="X20" s="8" t="n">
         <v>0.122561</v>
       </c>
-      <c r="Y20" s="7" t="n">
+      <c r="Y20" s="8" t="n">
         <v>0.999809</v>
       </c>
-      <c r="Z20" s="7" t="n">
+      <c r="Z20" s="8" t="n">
         <v>0.353979</v>
       </c>
     </row>
@@ -4649,40 +6705,40 @@
       <c r="K21" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="L21" s="7" t="n">
+      <c r="L21" s="8" t="n">
         <v>0.649</v>
       </c>
-      <c r="M21" s="7" t="n">
+      <c r="M21" s="8" t="n">
         <v>6</v>
       </c>
-      <c r="N21" s="7" t="n">
+      <c r="N21" s="8" t="n">
         <v>1.61</v>
       </c>
-      <c r="O21" s="7" t="n">
+      <c r="O21" s="8" t="n">
         <v>0.530085</v>
       </c>
-      <c r="P21" s="7" t="n">
+      <c r="P21" s="8" t="n">
         <v>1.483051</v>
       </c>
-      <c r="Q21" s="7" t="n">
+      <c r="Q21" s="8" t="n">
         <v>0.402542</v>
       </c>
-      <c r="R21" s="7" t="n">
+      <c r="R21" s="8" t="n">
         <v>0.075704</v>
       </c>
-      <c r="S21" s="7" t="n">
+      <c r="S21" s="8" t="n">
         <v>0.628051</v>
       </c>
-      <c r="T21" s="7" t="n">
+      <c r="T21" s="8" t="n">
         <v>0.351253</v>
       </c>
-      <c r="X21" s="7" t="n">
+      <c r="X21" s="8" t="n">
         <v>0.122561</v>
       </c>
-      <c r="Y21" s="7" t="n">
+      <c r="Y21" s="8" t="n">
         <v>1.346113</v>
       </c>
-      <c r="Z21" s="7" t="n">
+      <c r="Z21" s="8" t="n">
         <v>0.938019</v>
       </c>
     </row>
@@ -4720,40 +6776,40 @@
       <c r="K22" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="L22" s="7" t="n">
+      <c r="L22" s="8" t="n">
         <v>0.649</v>
       </c>
-      <c r="M22" s="7" t="n">
+      <c r="M22" s="8" t="n">
         <v>3</v>
       </c>
-      <c r="N22" s="7" t="n">
+      <c r="N22" s="8" t="n">
         <v>1.91</v>
       </c>
-      <c r="O22" s="7" t="n">
+      <c r="O22" s="8" t="n">
         <v>0.530085</v>
       </c>
-      <c r="P22" s="7" t="n">
+      <c r="P22" s="8" t="n">
         <v>1.123729</v>
       </c>
-      <c r="Q22" s="7" t="n">
+      <c r="Q22" s="8" t="n">
         <v>0.720763</v>
       </c>
-      <c r="R22" s="7" t="n">
+      <c r="R22" s="8" t="n">
         <v>0.075704</v>
       </c>
-      <c r="S22" s="7" t="n">
+      <c r="S22" s="8" t="n">
         <v>0.084663</v>
       </c>
-      <c r="T22" s="7" t="n">
+      <c r="T22" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="X22" s="7" t="n">
+      <c r="X22" s="8" t="n">
         <v>0.122561</v>
       </c>
-      <c r="Y22" s="7" t="n">
+      <c r="Y22" s="8" t="n">
         <v>0.471137</v>
       </c>
-      <c r="Z22" s="7" t="n">
+      <c r="Z22" s="8" t="n">
         <v>0.265484</v>
       </c>
     </row>
@@ -4791,40 +6847,40 @@
       <c r="K23" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="L23" s="7" t="n">
+      <c r="L23" s="8" t="n">
         <v>0.649</v>
       </c>
-      <c r="M23" s="7" t="n">
+      <c r="M23" s="8" t="n">
         <v>6.7</v>
       </c>
-      <c r="N23" s="7" t="n">
+      <c r="N23" s="8" t="n">
         <v>1.99</v>
       </c>
-      <c r="O23" s="7" t="n">
+      <c r="O23" s="8" t="n">
         <v>0.530085</v>
       </c>
-      <c r="P23" s="7" t="n">
+      <c r="P23" s="8" t="n">
         <v>1.377119</v>
       </c>
-      <c r="Q23" s="7" t="n">
+      <c r="Q23" s="8" t="n">
         <v>0.59322</v>
       </c>
-      <c r="R23" s="7" t="n">
+      <c r="R23" s="8" t="n">
         <v>0.075704</v>
       </c>
-      <c r="S23" s="7" t="n">
+      <c r="S23" s="8" t="n">
         <v>0.712143</v>
       </c>
-      <c r="T23" s="7" t="n">
+      <c r="T23" s="8" t="n">
         <v>0.365816</v>
       </c>
-      <c r="X23" s="7" t="n">
+      <c r="X23" s="8" t="n">
         <v>0.122561</v>
       </c>
-      <c r="Y23" s="7" t="n">
+      <c r="Y23" s="8" t="n">
         <v>0.259898</v>
       </c>
-      <c r="Z23" s="7" t="n">
+      <c r="Z23" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4862,40 +6918,40 @@
       <c r="K24" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="L24" s="7" t="n">
+      <c r="L24" s="8" t="n">
         <v>0.44</v>
       </c>
-      <c r="M24" s="7" t="n">
+      <c r="M24" s="8" t="n">
         <v>0.623</v>
       </c>
-      <c r="N24" s="7" t="n">
+      <c r="N24" s="8" t="n">
         <v>0.212</v>
       </c>
-      <c r="O24" s="7" t="n">
+      <c r="O24" s="8" t="n">
         <v>0.46822</v>
       </c>
-      <c r="P24" s="7" t="n">
+      <c r="P24" s="8" t="n">
         <v>0.763983</v>
       </c>
-      <c r="Q24" s="7" t="n">
+      <c r="Q24" s="8" t="n">
         <v>0.211441</v>
       </c>
-      <c r="R24" s="7" t="n">
+      <c r="R24" s="8" t="n">
         <v>0.04972</v>
       </c>
-      <c r="S24" s="7" t="n">
+      <c r="S24" s="8" t="n">
         <v>0.018489</v>
       </c>
-      <c r="T24" s="7" t="n">
+      <c r="T24" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="X24" s="7" t="n">
+      <c r="X24" s="8" t="n">
         <v>0.403839</v>
       </c>
-      <c r="Y24" s="7" t="n">
+      <c r="Y24" s="8" t="n">
         <v>0.484633</v>
       </c>
-      <c r="Z24" s="7" t="n">
+      <c r="Z24" s="8" t="n">
         <v>0.079619</v>
       </c>
     </row>
@@ -4933,40 +6989,40 @@
       <c r="K25" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="L25" s="7" t="n">
+      <c r="L25" s="8" t="n">
         <v>0.44</v>
       </c>
-      <c r="M25" s="7" t="n">
+      <c r="M25" s="8" t="n">
         <v>0.463</v>
       </c>
-      <c r="N25" s="7" t="n">
+      <c r="N25" s="8" t="n">
         <v>0.296</v>
       </c>
-      <c r="O25" s="7" t="n">
+      <c r="O25" s="8" t="n">
         <v>0.46822</v>
       </c>
-      <c r="P25" s="7" t="n">
+      <c r="P25" s="8" t="n">
         <v>0.763136</v>
       </c>
-      <c r="Q25" s="7" t="n">
+      <c r="Q25" s="8" t="n">
         <v>0.148305</v>
       </c>
-      <c r="R25" s="7" t="n">
+      <c r="R25" s="8" t="n">
         <v>0.04972</v>
       </c>
-      <c r="S25" s="7" t="n">
+      <c r="S25" s="8" t="n">
         <v>0.001856</v>
       </c>
-      <c r="T25" s="7" t="n">
+      <c r="T25" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="X25" s="7" t="n">
+      <c r="X25" s="8" t="n">
         <v>0.403839</v>
       </c>
-      <c r="Y25" s="7" t="n">
+      <c r="Y25" s="8" t="n">
         <v>0.627373</v>
       </c>
-      <c r="Z25" s="7" t="n">
+      <c r="Z25" s="8" t="n">
         <v>0.371626</v>
       </c>
     </row>
@@ -5308,6 +7364,1922 @@
       <c r="Z29" s="0" t="str">
         <f aca="false">79.4-69.5</f>
         <v>9.9</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E30" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J30" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L30" s="8" t="n">
+        <v>4.372982</v>
+      </c>
+      <c r="M30" s="8" t="n">
+        <v>26.49235</v>
+      </c>
+      <c r="N30" s="8" t="n">
+        <v>10.14868</v>
+      </c>
+      <c r="U30" s="7"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X30" s="8" t="n">
+        <v>165.2915</v>
+      </c>
+      <c r="Y30" s="8" t="n">
+        <v>190.2965</v>
+      </c>
+      <c r="Z30" s="8" t="n">
+        <v>56.85004</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E31" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J31" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L31" s="8" t="n">
+        <v>4.372982</v>
+      </c>
+      <c r="M31" s="8" t="n">
+        <v>33.8812</v>
+      </c>
+      <c r="N31" s="8" t="n">
+        <v>8.595267</v>
+      </c>
+      <c r="U31" s="7"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X31" s="8" t="n">
+        <v>165.2915</v>
+      </c>
+      <c r="Y31" s="8" t="n">
+        <v>415.0413</v>
+      </c>
+      <c r="Z31" s="8" t="n">
+        <v>108.6034</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H32" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J32" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L32" s="8" t="n">
+        <v>4.691047</v>
+      </c>
+      <c r="M32" s="8" t="n">
+        <v>19.72662</v>
+      </c>
+      <c r="N32" s="8" t="n">
+        <v>5.9546</v>
+      </c>
+      <c r="U32" s="8" t="n">
+        <v>2.959039</v>
+      </c>
+      <c r="V32" s="8" t="n">
+        <v>26.4018</v>
+      </c>
+      <c r="W32" s="8" t="n">
+        <v>8.902545</v>
+      </c>
+      <c r="X32" s="8" t="n">
+        <v>83.00731</v>
+      </c>
+      <c r="Y32" s="8" t="n">
+        <v>1578.672</v>
+      </c>
+      <c r="Z32" s="8" t="n">
+        <v>731.3258</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E33" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H33" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J33" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L33" s="8" t="n">
+        <v>4.691047</v>
+      </c>
+      <c r="M33" s="8" t="n">
+        <v>35.11924</v>
+      </c>
+      <c r="N33" s="8" t="n">
+        <v>11.58932</v>
+      </c>
+      <c r="U33" s="8" t="n">
+        <v>2.959039</v>
+      </c>
+      <c r="V33" s="8" t="n">
+        <v>22.99074</v>
+      </c>
+      <c r="W33" s="8" t="n">
+        <v>8.064169</v>
+      </c>
+      <c r="X33" s="8" t="n">
+        <v>83.00731</v>
+      </c>
+      <c r="Y33" s="8" t="n">
+        <v>414.7247</v>
+      </c>
+      <c r="Z33" s="8" t="n">
+        <v>143.5867</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E34" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H34" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J34" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K34" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L34" s="8" t="n">
+        <v>4.966656</v>
+      </c>
+      <c r="M34" s="8" t="n">
+        <v>7.363973</v>
+      </c>
+      <c r="N34" s="8" t="n">
+        <v>1.038716</v>
+      </c>
+      <c r="U34" s="8" t="n">
+        <v>8.556904</v>
+      </c>
+      <c r="V34" s="8" t="n">
+        <v>12.11984</v>
+      </c>
+      <c r="W34" s="8" t="n">
+        <v>1.584946</v>
+      </c>
+      <c r="X34" s="8" t="n">
+        <v>137.116</v>
+      </c>
+      <c r="Y34" s="8" t="n">
+        <v>88.25633</v>
+      </c>
+      <c r="Z34" s="8" t="n">
+        <v>13.83666</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J35" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L35" s="8" t="n">
+        <v>4.966656</v>
+      </c>
+      <c r="M35" s="8" t="n">
+        <v>9.568727</v>
+      </c>
+      <c r="N35" s="8" t="n">
+        <v>3.915736</v>
+      </c>
+      <c r="U35" s="8" t="n">
+        <v>8.556904</v>
+      </c>
+      <c r="V35" s="8" t="n">
+        <v>20.22185</v>
+      </c>
+      <c r="W35" s="8" t="n">
+        <v>7.85086</v>
+      </c>
+      <c r="X35" s="8" t="n">
+        <v>137.116</v>
+      </c>
+      <c r="Y35" s="8" t="n">
+        <v>297.7407</v>
+      </c>
+      <c r="Z35" s="8" t="n">
+        <v>124.2047</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H36" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I36" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L36" s="8" t="n">
+        <v>4.402299</v>
+      </c>
+      <c r="M36" s="8" t="n">
+        <v>13.61639</v>
+      </c>
+      <c r="N36" s="8" t="n">
+        <v>2.836072</v>
+      </c>
+      <c r="U36" s="7"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X36" s="8" t="n">
+        <v>171.3035</v>
+      </c>
+      <c r="Y36" s="8" t="n">
+        <v>276.413</v>
+      </c>
+      <c r="Z36" s="8" t="n">
+        <v>85.36452</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H37" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I37" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J37" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L37" s="8" t="n">
+        <v>4.402299</v>
+      </c>
+      <c r="M37" s="8" t="n">
+        <v>14.10482</v>
+      </c>
+      <c r="N37" s="8" t="n">
+        <v>4.122398</v>
+      </c>
+      <c r="U37" s="7"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" s="8" t="n">
+        <v>171.3035</v>
+      </c>
+      <c r="Y37" s="8" t="n">
+        <v>351.1192</v>
+      </c>
+      <c r="Z37" s="8" t="n">
+        <v>136.7593</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J38" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L38" s="8" t="n">
+        <v>5.018237</v>
+      </c>
+      <c r="M38" s="8" t="n">
+        <v>11.68546</v>
+      </c>
+      <c r="N38" s="8" t="n">
+        <v>3.015268</v>
+      </c>
+      <c r="U38" s="8" t="n">
+        <v>2.825131</v>
+      </c>
+      <c r="V38" s="8" t="n">
+        <v>10.41848</v>
+      </c>
+      <c r="W38" s="8" t="n">
+        <v>3.945347</v>
+      </c>
+      <c r="X38" s="8" t="n">
+        <v>86.11225</v>
+      </c>
+      <c r="Y38" s="8" t="n">
+        <v>594.5518</v>
+      </c>
+      <c r="Z38" s="8" t="n">
+        <v>219.5226</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H39" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I39" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J39" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L39" s="8" t="n">
+        <v>5.018237</v>
+      </c>
+      <c r="M39" s="8" t="n">
+        <v>28.79574</v>
+      </c>
+      <c r="N39" s="8" t="n">
+        <v>6.486805</v>
+      </c>
+      <c r="U39" s="8" t="n">
+        <v>2.825131</v>
+      </c>
+      <c r="V39" s="8" t="n">
+        <v>16.42489</v>
+      </c>
+      <c r="W39" s="8" t="n">
+        <v>3.113814</v>
+      </c>
+      <c r="X39" s="8" t="n">
+        <v>86.11225</v>
+      </c>
+      <c r="Y39" s="8" t="n">
+        <v>493.8582</v>
+      </c>
+      <c r="Z39" s="8" t="n">
+        <v>139.8118</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I40" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J40" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L40" s="8" t="n">
+        <v>5.568818</v>
+      </c>
+      <c r="M40" s="8" t="n">
+        <v>7.760269</v>
+      </c>
+      <c r="N40" s="8" t="n">
+        <v>1.242664</v>
+      </c>
+      <c r="U40" s="8" t="n">
+        <v>8.429776</v>
+      </c>
+      <c r="V40" s="8" t="n">
+        <v>13.78688</v>
+      </c>
+      <c r="W40" s="8" t="n">
+        <v>2.456732</v>
+      </c>
+      <c r="X40" s="8" t="n">
+        <v>143.1674</v>
+      </c>
+      <c r="Y40" s="8" t="n">
+        <v>112.7063</v>
+      </c>
+      <c r="Z40" s="8" t="n">
+        <v>34.80703</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" s="7" t="n">
+        <v>2</v>
+      </c>
+      <c r="J41" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L41" s="8" t="n">
+        <v>5.568818</v>
+      </c>
+      <c r="M41" s="8" t="n">
+        <v>8.146629</v>
+      </c>
+      <c r="N41" s="8" t="n">
+        <v>1.563249</v>
+      </c>
+      <c r="U41" s="8" t="n">
+        <v>8.429776</v>
+      </c>
+      <c r="V41" s="8" t="n">
+        <v>20.77339</v>
+      </c>
+      <c r="W41" s="8" t="n">
+        <v>9.683075</v>
+      </c>
+      <c r="X41" s="8" t="n">
+        <v>143.1674</v>
+      </c>
+      <c r="Y41" s="8" t="n">
+        <v>217.6017</v>
+      </c>
+      <c r="Z41" s="8" t="n">
+        <v>58.81126</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J42" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L42" s="8" t="n">
+        <v>4.598677</v>
+      </c>
+      <c r="M42" s="8" t="n">
+        <v>37.75463</v>
+      </c>
+      <c r="N42" s="8" t="n">
+        <v>4.7607</v>
+      </c>
+      <c r="U42" s="7"/>
+      <c r="V42" s="7"/>
+      <c r="W42" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X42" s="8" t="n">
+        <v>193.8653</v>
+      </c>
+      <c r="Y42" s="8" t="n">
+        <v>409.7321</v>
+      </c>
+      <c r="Z42" s="8" t="n">
+        <v>77.23542</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J43" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K43" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" s="8" t="n">
+        <v>4.598677</v>
+      </c>
+      <c r="M43" s="8" t="n">
+        <v>60.53762</v>
+      </c>
+      <c r="N43" s="8" t="n">
+        <v>4.173146</v>
+      </c>
+      <c r="U43" s="7"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X43" s="8" t="n">
+        <v>193.8653</v>
+      </c>
+      <c r="Y43" s="8" t="n">
+        <v>605.8177</v>
+      </c>
+      <c r="Z43" s="8" t="n">
+        <v>216.5188</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J44" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L44" s="8" t="n">
+        <v>5.959677</v>
+      </c>
+      <c r="M44" s="8" t="n">
+        <v>27.87923</v>
+      </c>
+      <c r="N44" s="8" t="n">
+        <v>5.988896</v>
+      </c>
+      <c r="U44" s="8" t="n">
+        <v>5.734694</v>
+      </c>
+      <c r="V44" s="8" t="n">
+        <v>30.45528</v>
+      </c>
+      <c r="W44" s="8" t="n">
+        <v>9.33719</v>
+      </c>
+      <c r="X44" s="8" t="n">
+        <v>109.0184</v>
+      </c>
+      <c r="Y44" s="8" t="n">
+        <v>1892.927</v>
+      </c>
+      <c r="Z44" s="8" t="n">
+        <v>632.63</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J45" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L45" s="8" t="n">
+        <v>5.959677</v>
+      </c>
+      <c r="M45" s="8" t="n">
+        <v>39.37344</v>
+      </c>
+      <c r="N45" s="8" t="n">
+        <v>9.390356</v>
+      </c>
+      <c r="U45" s="8" t="n">
+        <v>5.734694</v>
+      </c>
+      <c r="V45" s="8" t="n">
+        <v>30.87736</v>
+      </c>
+      <c r="W45" s="8" t="n">
+        <v>7.292511</v>
+      </c>
+      <c r="X45" s="8" t="n">
+        <v>109.0184</v>
+      </c>
+      <c r="Y45" s="8" t="n">
+        <v>743.6908</v>
+      </c>
+      <c r="Z45" s="8" t="n">
+        <v>224.0543</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J46" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L46" s="8" t="n">
+        <v>4.866828</v>
+      </c>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="U46" s="7"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X46" s="8" t="n">
+        <v>137.2461</v>
+      </c>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H47" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J47" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L47" s="8" t="n">
+        <v>4.866828</v>
+      </c>
+      <c r="M47" s="8" t="n">
+        <v>4.230849</v>
+      </c>
+      <c r="N47" s="8" t="n">
+        <v>0.726232</v>
+      </c>
+      <c r="U47" s="8" t="n">
+        <v>6.296869</v>
+      </c>
+      <c r="V47" s="8" t="n">
+        <v>8.43694</v>
+      </c>
+      <c r="W47" s="8" t="n">
+        <v>1.364122</v>
+      </c>
+      <c r="X47" s="8" t="n">
+        <v>137.2461</v>
+      </c>
+      <c r="Y47" s="8" t="n">
+        <v>118.8502</v>
+      </c>
+      <c r="Z47" s="8" t="n">
+        <v>35.14243</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H48" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J48" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L48" s="8" t="n">
+        <v>5.545011</v>
+      </c>
+      <c r="M48" s="8" t="n">
+        <v>13.42916</v>
+      </c>
+      <c r="N48" s="8" t="n">
+        <v>3.148081</v>
+      </c>
+      <c r="U48" s="7"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" s="8" t="n">
+        <v>144.9737</v>
+      </c>
+      <c r="Y48" s="8" t="n">
+        <v>191.627</v>
+      </c>
+      <c r="Z48" s="8" t="n">
+        <v>51.04033</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H49" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J49" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" s="8" t="n">
+        <v>5.545011</v>
+      </c>
+      <c r="M49" s="8" t="n">
+        <v>26.59107</v>
+      </c>
+      <c r="N49" s="8" t="n">
+        <v>5.231821</v>
+      </c>
+      <c r="U49" s="7"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X49" s="8" t="n">
+        <v>144.9737</v>
+      </c>
+      <c r="Y49" s="8" t="n">
+        <v>602.3325</v>
+      </c>
+      <c r="Z49" s="8" t="n">
+        <v>150.1881</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H50" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I50" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J50" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L50" s="8" t="n">
+        <v>5.316303</v>
+      </c>
+      <c r="M50" s="8" t="n">
+        <v>10.28478</v>
+      </c>
+      <c r="N50" s="8" t="n">
+        <v>1.717623</v>
+      </c>
+      <c r="U50" s="8" t="n">
+        <v>3.727594</v>
+      </c>
+      <c r="V50" s="8" t="n">
+        <v>9.760536</v>
+      </c>
+      <c r="W50" s="8" t="n">
+        <v>3.026412</v>
+      </c>
+      <c r="X50" s="8" t="n">
+        <v>125.3657</v>
+      </c>
+      <c r="Y50" s="8" t="n">
+        <v>488.2221</v>
+      </c>
+      <c r="Z50" s="8" t="n">
+        <v>183.6166</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H51" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I51" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J51" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K51" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L51" s="8" t="n">
+        <v>5.316303</v>
+      </c>
+      <c r="M51" s="8" t="n">
+        <v>17.78279</v>
+      </c>
+      <c r="N51" s="8" t="n">
+        <v>5.436748</v>
+      </c>
+      <c r="U51" s="8" t="n">
+        <v>3.727594</v>
+      </c>
+      <c r="V51" s="8" t="n">
+        <v>12.61107</v>
+      </c>
+      <c r="W51" s="8" t="n">
+        <v>4.492342</v>
+      </c>
+      <c r="X51" s="8" t="n">
+        <v>125.3657</v>
+      </c>
+      <c r="Y51" s="8" t="n">
+        <v>395.6122</v>
+      </c>
+      <c r="Z51" s="8" t="n">
+        <v>90.93866</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H52" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I52" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J52" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L52" s="8" t="n">
+        <v>5.169096</v>
+      </c>
+      <c r="M52" s="8" t="n">
+        <v>4.751484</v>
+      </c>
+      <c r="N52" s="8" t="n">
+        <v>0.490699</v>
+      </c>
+      <c r="U52" s="8" t="n">
+        <v>8.439482</v>
+      </c>
+      <c r="V52" s="8" t="n">
+        <v>12.96528</v>
+      </c>
+      <c r="W52" s="8" t="n">
+        <v>2.993786</v>
+      </c>
+      <c r="X52" s="8" t="n">
+        <v>137.3629</v>
+      </c>
+      <c r="Y52" s="8" t="n">
+        <v>97.85216</v>
+      </c>
+      <c r="Z52" s="8" t="n">
+        <v>33.56147</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>2015</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="F53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H53" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" s="7" t="n">
+        <v>3</v>
+      </c>
+      <c r="J53" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K53" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L53" s="8" t="n">
+        <v>5.169096</v>
+      </c>
+      <c r="M53" s="8" t="n">
+        <v>7.876648</v>
+      </c>
+      <c r="N53" s="8" t="n">
+        <v>1.577224</v>
+      </c>
+      <c r="U53" s="8" t="n">
+        <v>8.439482</v>
+      </c>
+      <c r="V53" s="8" t="n">
+        <v>14.48446</v>
+      </c>
+      <c r="W53" s="8" t="n">
+        <v>3.593229</v>
+      </c>
+      <c r="X53" s="8" t="n">
+        <v>137.3629</v>
+      </c>
+      <c r="Y53" s="8" t="n">
+        <v>220.0319</v>
+      </c>
+      <c r="Z53" s="8" t="n">
+        <v>93.34793</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H54" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J54" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L54" s="8" t="n">
+        <v>62.45609</v>
+      </c>
+      <c r="M54" s="8" t="n">
+        <v>41.76452</v>
+      </c>
+      <c r="N54" s="8" t="n">
+        <v>4.675763</v>
+      </c>
+      <c r="R54" s="8" t="n">
+        <v>3.024799</v>
+      </c>
+      <c r="S54" s="8" t="n">
+        <v>0.940396</v>
+      </c>
+      <c r="T54" s="8" t="n">
+        <v>1.324777</v>
+      </c>
+      <c r="U54" s="8" t="n">
+        <v>4.145299</v>
+      </c>
+      <c r="V54" s="8" t="n">
+        <v>5.641026</v>
+      </c>
+      <c r="W54" s="8" t="n">
+        <v>0.769231</v>
+      </c>
+      <c r="X54" s="8" t="n">
+        <v>48.97368</v>
+      </c>
+      <c r="Y54" s="8" t="n">
+        <v>67.81292</v>
+      </c>
+      <c r="Z54" s="8" t="n">
+        <v>8.85447</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H55" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I55" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J55" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>1</v>
+      </c>
+      <c r="L55" s="8" t="n">
+        <v>62.45609</v>
+      </c>
+      <c r="M55" s="8" t="n">
+        <v>31.35906</v>
+      </c>
+      <c r="N55" s="8" t="n">
+        <v>5.604511</v>
+      </c>
+      <c r="R55" s="8" t="n">
+        <v>3.024799</v>
+      </c>
+      <c r="S55" s="8" t="n">
+        <v>1.055253</v>
+      </c>
+      <c r="T55" s="8" t="n">
+        <v>1.327387</v>
+      </c>
+      <c r="U55" s="8" t="n">
+        <v>4.145299</v>
+      </c>
+      <c r="V55" s="8" t="n">
+        <v>3.803419</v>
+      </c>
+      <c r="W55" s="8" t="n">
+        <v>0.641026</v>
+      </c>
+      <c r="X55" s="8" t="n">
+        <v>48.97368</v>
+      </c>
+      <c r="Y55" s="8" t="n">
+        <v>36.19056</v>
+      </c>
+      <c r="Z55" s="8" t="n">
+        <v>11.4988</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H56" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J56" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L56" s="8" t="n">
+        <v>47.86107</v>
+      </c>
+      <c r="M56" s="8" t="n">
+        <v>178.5728</v>
+      </c>
+      <c r="N56" s="8" t="n">
+        <v>32.70996</v>
+      </c>
+      <c r="R56" s="8" t="n">
+        <v>2.245595</v>
+      </c>
+      <c r="S56" s="8" t="n">
+        <v>66.52534</v>
+      </c>
+      <c r="T56" s="8" t="n">
+        <v>7.964325</v>
+      </c>
+      <c r="U56" s="8" t="n">
+        <v>3.333333</v>
+      </c>
+      <c r="V56" s="8" t="n">
+        <v>11.06838</v>
+      </c>
+      <c r="W56" s="8" t="n">
+        <v>1.794872</v>
+      </c>
+      <c r="X56" s="8" t="n">
+        <v>40.34109</v>
+      </c>
+      <c r="Y56" s="8" t="n">
+        <v>226.4103</v>
+      </c>
+      <c r="Z56" s="8" t="n">
+        <v>12.38895</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H57" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I57" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J57" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>7</v>
+      </c>
+      <c r="L57" s="8" t="n">
+        <v>47.86107</v>
+      </c>
+      <c r="M57" s="8" t="n">
+        <v>104.6166</v>
+      </c>
+      <c r="N57" s="8" t="n">
+        <v>10.28319</v>
+      </c>
+      <c r="R57" s="8" t="n">
+        <v>2.245595</v>
+      </c>
+      <c r="S57" s="8" t="n">
+        <v>1.153143</v>
+      </c>
+      <c r="T57" s="8" t="n">
+        <v>2.212312</v>
+      </c>
+      <c r="U57" s="8" t="n">
+        <v>3.333333</v>
+      </c>
+      <c r="V57" s="8" t="n">
+        <v>11.36752</v>
+      </c>
+      <c r="W57" s="8" t="n">
+        <v>1.324786</v>
+      </c>
+      <c r="X57" s="8" t="n">
+        <v>40.34109</v>
+      </c>
+      <c r="Y57" s="8" t="n">
+        <v>127.5493</v>
+      </c>
+      <c r="Z57" s="8" t="n">
+        <v>12.38373</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H58" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I58" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J58" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L58" s="8" t="n">
+        <v>65.04435</v>
+      </c>
+      <c r="M58" s="8" t="n">
+        <v>64.91042</v>
+      </c>
+      <c r="N58" s="8" t="n">
+        <v>11.21484</v>
+      </c>
+      <c r="R58" s="8" t="n">
+        <v>6.325647</v>
+      </c>
+      <c r="S58" s="8" t="n">
+        <v>101.5725</v>
+      </c>
+      <c r="T58" s="8" t="n">
+        <v>7.964325</v>
+      </c>
+      <c r="U58" s="8" t="n">
+        <v>6.965812</v>
+      </c>
+      <c r="V58" s="8" t="n">
+        <v>3.418803</v>
+      </c>
+      <c r="W58" s="8" t="n">
+        <v>1.068376</v>
+      </c>
+      <c r="X58" s="8" t="n">
+        <v>47.62671</v>
+      </c>
+      <c r="Y58" s="8" t="n">
+        <v>35.47792</v>
+      </c>
+      <c r="Z58" s="8" t="n">
+        <v>6.199695</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H59" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I59" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J59" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K59" s="8" t="n">
+        <v>21</v>
+      </c>
+      <c r="L59" s="8" t="n">
+        <v>65.04435</v>
+      </c>
+      <c r="M59" s="8" t="n">
+        <v>64.78232</v>
+      </c>
+      <c r="N59" s="8" t="n">
+        <v>14.01564</v>
+      </c>
+      <c r="R59" s="8" t="n">
+        <v>6.325647</v>
+      </c>
+      <c r="S59" s="8" t="n">
+        <v>2.141179</v>
+      </c>
+      <c r="T59" s="8" t="n">
+        <v>9.731564</v>
+      </c>
+      <c r="U59" s="8" t="n">
+        <v>6.965812</v>
+      </c>
+      <c r="V59" s="8" t="n">
+        <v>5.683761</v>
+      </c>
+      <c r="W59" s="8" t="n">
+        <v>1.068376</v>
+      </c>
+      <c r="X59" s="8" t="n">
+        <v>47.62671</v>
+      </c>
+      <c r="Y59" s="8" t="n">
+        <v>25.11464</v>
+      </c>
+      <c r="Z59" s="8" t="n">
+        <v>3.534479</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H60" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I60" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J60" s="8" t="n">
+        <v>20</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L60" s="8" t="n">
+        <v>43.90443</v>
+      </c>
+      <c r="M60" s="8" t="n">
+        <v>48.44335</v>
+      </c>
+      <c r="N60" s="8" t="n">
+        <v>10.28027</v>
+      </c>
+      <c r="R60" s="8" t="n">
+        <v>2.883837</v>
+      </c>
+      <c r="S60" s="8" t="n">
+        <v>1.673918</v>
+      </c>
+      <c r="T60" s="8" t="n">
+        <v>1.775071</v>
+      </c>
+      <c r="U60" s="8" t="n">
+        <v>6.965812</v>
+      </c>
+      <c r="V60" s="8" t="n">
+        <v>6.965812</v>
+      </c>
+      <c r="W60" s="8" t="n">
+        <v>1.153846</v>
+      </c>
+      <c r="X60" s="8" t="n">
+        <v>57.56711</v>
+      </c>
+      <c r="Y60" s="8" t="n">
+        <v>52.52382</v>
+      </c>
+      <c r="Z60" s="8" t="n">
+        <v>3.524037</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>2016</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="H61" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="J61" s="8" t="n">
+        <v>110</v>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>56</v>
+      </c>
+      <c r="L61" s="8" t="n">
+        <v>43.90443</v>
+      </c>
+      <c r="M61" s="8" t="n">
+        <v>52.98519</v>
+      </c>
+      <c r="N61" s="8" t="n">
+        <v>8.416956</v>
+      </c>
+      <c r="R61" s="8" t="n">
+        <v>2.883837</v>
+      </c>
+      <c r="S61" s="8" t="n">
+        <v>2.239069</v>
+      </c>
+      <c r="T61" s="8" t="n">
+        <v>1.327387</v>
+      </c>
+      <c r="U61" s="8" t="n">
+        <v>6.965812</v>
+      </c>
+      <c r="V61" s="8" t="n">
+        <v>6.965812</v>
+      </c>
+      <c r="W61" s="8" t="n">
+        <v>1.153846</v>
+      </c>
+      <c r="X61" s="8" t="n">
+        <v>57.56711</v>
+      </c>
+      <c r="Y61" s="8" t="n">
+        <v>57.17816</v>
+      </c>
+      <c r="Z61" s="8" t="n">
+        <v>6.184033</v>
       </c>
     </row>
   </sheetData>
@@ -5340,7 +9312,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>56</v>
